--- a/Códigos organismos.xlsx
+++ b/Códigos organismos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82163F8-862B-4D6A-BF5A-2C52DD6CB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3EAD9-0FDA-422B-A686-5DE836ED3C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{220E0E42-323B-45CE-92DC-D5AFF006F373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{220E0E42-323B-45CE-92DC-D5AFF006F373}"/>
   </bookViews>
   <sheets>
     <sheet name="Códigos" sheetId="1" r:id="rId1"/>
@@ -4426,23 +4426,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F66F563-F43E-4543-9028-58E64A9150FA}" name="Tabla2" displayName="Tabla2" ref="A1:G698" totalsRowShown="0">
-  <autoFilter ref="A1:G698" xr:uid="{4F66F563-F43E-4543-9028-58E64A9150FA}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G698" xr:uid="{4F66F563-F43E-4543-9028-58E64A9150FA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G698">
     <sortCondition ref="G1:G698"/>
   </sortState>
@@ -4758,17 +4742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724E0223-FD55-4ED8-8857-0584C05C1DC4}">
   <dimension ref="A1:G698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G697"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="A693" sqref="A693"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +4775,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>917</v>
       </c>
@@ -4814,7 +4798,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>960</v>
       </c>
@@ -4837,7 +4821,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>992</v>
       </c>
@@ -4860,7 +4844,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1110</v>
       </c>
@@ -4883,7 +4867,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -4906,7 +4890,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>800</v>
       </c>
@@ -4929,7 +4913,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>247</v>
       </c>
@@ -4952,7 +4936,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>715</v>
       </c>
@@ -4975,7 +4959,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1181</v>
       </c>
@@ -4998,7 +4982,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -5021,7 +5005,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -5044,7 +5028,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1185</v>
       </c>
@@ -5067,7 +5051,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>625</v>
       </c>
@@ -5090,7 +5074,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -5113,7 +5097,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>948</v>
       </c>
@@ -5136,7 +5120,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -5159,7 +5143,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1399</v>
       </c>
@@ -5182,7 +5166,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -5205,7 +5189,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -5228,7 +5212,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -5251,7 +5235,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>450</v>
       </c>
@@ -5274,7 +5258,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>438</v>
       </c>
@@ -5297,7 +5281,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1400</v>
       </c>
@@ -5320,7 +5304,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1401</v>
       </c>
@@ -5343,7 +5327,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1402</v>
       </c>
@@ -5366,7 +5350,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1178</v>
       </c>
@@ -5389,7 +5373,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -5412,7 +5396,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1286</v>
       </c>
@@ -5435,7 +5419,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1287</v>
       </c>
@@ -5458,7 +5442,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1288</v>
       </c>
@@ -5481,7 +5465,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1289</v>
       </c>
@@ -5504,7 +5488,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1403</v>
       </c>
@@ -5527,7 +5511,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1138</v>
       </c>
@@ -5550,7 +5534,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1066</v>
       </c>
@@ -5573,7 +5557,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1098</v>
       </c>
@@ -5596,7 +5580,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -5619,7 +5603,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1042</v>
       </c>
@@ -5642,7 +5626,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>235</v>
       </c>
@@ -5665,7 +5649,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1404</v>
       </c>
@@ -5688,7 +5672,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -5711,7 +5695,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1054</v>
       </c>
@@ -5734,7 +5718,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -5757,7 +5741,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1405</v>
       </c>
@@ -5780,7 +5764,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1020</v>
       </c>
@@ -5803,7 +5787,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>382</v>
       </c>
@@ -5826,7 +5810,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1120</v>
       </c>
@@ -5849,7 +5833,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1022</v>
       </c>
@@ -5872,7 +5856,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5895,7 +5879,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1078</v>
       </c>
@@ -5918,7 +5902,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1140</v>
       </c>
@@ -5941,7 +5925,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -5964,7 +5948,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -5987,7 +5971,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>303</v>
       </c>
@@ -6010,7 +5994,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>366</v>
       </c>
@@ -6033,7 +6017,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -6056,7 +6040,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -6079,7 +6063,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>573</v>
       </c>
@@ -6102,7 +6086,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -6125,7 +6109,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -6148,7 +6132,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>717</v>
       </c>
@@ -6171,7 +6155,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>420</v>
       </c>
@@ -6194,7 +6178,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1096</v>
       </c>
@@ -6217,7 +6201,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1290</v>
       </c>
@@ -6240,7 +6224,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>972</v>
       </c>
@@ -6263,7 +6247,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6286,7 +6270,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>593</v>
       </c>
@@ -6309,7 +6293,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1064</v>
       </c>
@@ -6332,7 +6316,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>804</v>
       </c>
@@ -6355,7 +6339,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>485</v>
       </c>
@@ -6378,7 +6362,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1156</v>
       </c>
@@ -6401,7 +6385,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>269</v>
       </c>
@@ -6424,7 +6408,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>768</v>
       </c>
@@ -6447,7 +6431,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>774</v>
       </c>
@@ -6470,7 +6454,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>360</v>
       </c>
@@ -6493,7 +6477,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1406</v>
       </c>
@@ -6516,7 +6500,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1291</v>
       </c>
@@ -6539,7 +6523,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1292</v>
       </c>
@@ -6562,7 +6546,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -6585,7 +6569,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>179</v>
       </c>
@@ -6608,7 +6592,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>721</v>
       </c>
@@ -6631,7 +6615,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1134</v>
       </c>
@@ -6654,7 +6638,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1052</v>
       </c>
@@ -6677,7 +6661,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -6700,7 +6684,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -6723,7 +6707,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>734</v>
       </c>
@@ -6746,7 +6730,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>945</v>
       </c>
@@ -6769,7 +6753,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>976</v>
       </c>
@@ -6792,7 +6776,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>587</v>
       </c>
@@ -6815,7 +6799,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1038</v>
       </c>
@@ -6838,7 +6822,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>575</v>
       </c>
@@ -6861,7 +6845,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>541</v>
       </c>
@@ -6884,7 +6868,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>605</v>
       </c>
@@ -6907,7 +6891,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1118</v>
       </c>
@@ -6930,7 +6914,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -6953,7 +6937,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -6976,7 +6960,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -6999,7 +6983,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -7022,7 +7006,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>643</v>
       </c>
@@ -7045,7 +7029,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -7068,7 +7052,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>685</v>
       </c>
@@ -7091,7 +7075,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -7114,7 +7098,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1407</v>
       </c>
@@ -7137,7 +7121,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1293</v>
       </c>
@@ -7160,7 +7144,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1294</v>
       </c>
@@ -7183,7 +7167,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1295</v>
       </c>
@@ -7206,7 +7190,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1296</v>
       </c>
@@ -7229,7 +7213,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1036</v>
       </c>
@@ -7252,7 +7236,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>597</v>
       </c>
@@ -7275,7 +7259,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1166</v>
       </c>
@@ -7298,7 +7282,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>577</v>
       </c>
@@ -7321,7 +7305,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -7344,7 +7328,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>705</v>
       </c>
@@ -7367,7 +7351,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1160</v>
       </c>
@@ -7390,7 +7374,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>974</v>
       </c>
@@ -7413,7 +7397,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>820</v>
       </c>
@@ -7436,7 +7420,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1126</v>
       </c>
@@ -7459,7 +7443,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1297</v>
       </c>
@@ -7482,7 +7466,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -7505,7 +7489,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>322</v>
       </c>
@@ -7528,7 +7512,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1026</v>
       </c>
@@ -7551,7 +7535,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1170</v>
       </c>
@@ -7574,7 +7558,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>986</v>
       </c>
@@ -7597,7 +7581,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>834</v>
       </c>
@@ -7620,7 +7604,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1144</v>
       </c>
@@ -7643,7 +7627,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>595</v>
       </c>
@@ -7666,7 +7650,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1152</v>
       </c>
@@ -7689,7 +7673,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>621</v>
       </c>
@@ -7712,7 +7696,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1084</v>
       </c>
@@ -7735,7 +7719,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1408</v>
       </c>
@@ -7758,7 +7742,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>978</v>
       </c>
@@ -7781,7 +7765,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1136</v>
       </c>
@@ -7804,7 +7788,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -7827,7 +7811,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>792</v>
       </c>
@@ -7850,7 +7834,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1168</v>
       </c>
@@ -7873,7 +7857,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1086</v>
       </c>
@@ -7896,7 +7880,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -7919,7 +7903,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1150</v>
       </c>
@@ -7942,7 +7926,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -7965,7 +7949,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -7988,7 +7972,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>996</v>
       </c>
@@ -8011,7 +7995,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>171</v>
       </c>
@@ -8034,7 +8018,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>750</v>
       </c>
@@ -8057,7 +8041,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>374</v>
       </c>
@@ -8080,7 +8064,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -8103,7 +8087,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>458</v>
       </c>
@@ -8126,7 +8110,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>362</v>
       </c>
@@ -8149,7 +8133,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>854</v>
       </c>
@@ -8172,7 +8156,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1050</v>
       </c>
@@ -8195,7 +8179,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>830</v>
       </c>
@@ -8218,7 +8202,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>816</v>
       </c>
@@ -8241,7 +8225,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -8264,7 +8248,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>275</v>
       </c>
@@ -8287,7 +8271,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>386</v>
       </c>
@@ -8310,7 +8294,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>398</v>
       </c>
@@ -8333,7 +8317,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>307</v>
       </c>
@@ -8356,7 +8340,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>665</v>
       </c>
@@ -8379,7 +8363,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -8402,7 +8386,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1180</v>
       </c>
@@ -8425,7 +8409,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -8448,7 +8432,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>342</v>
       </c>
@@ -8471,7 +8455,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>487</v>
       </c>
@@ -8494,7 +8478,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>527</v>
       </c>
@@ -8517,7 +8501,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -8540,7 +8524,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -8563,7 +8547,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>370</v>
       </c>
@@ -8586,7 +8570,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>50</v>
       </c>
@@ -8609,7 +8593,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>237</v>
       </c>
@@ -8632,7 +8616,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1032</v>
       </c>
@@ -8655,7 +8639,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -8678,7 +8662,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>440</v>
       </c>
@@ -8701,7 +8685,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>850</v>
       </c>
@@ -8724,7 +8708,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -8747,7 +8731,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>931</v>
       </c>
@@ -8770,7 +8754,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1164</v>
       </c>
@@ -8793,7 +8777,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1162</v>
       </c>
@@ -8816,7 +8800,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>760</v>
       </c>
@@ -8839,7 +8823,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1176</v>
       </c>
@@ -8862,7 +8846,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>637</v>
       </c>
@@ -8885,7 +8869,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>982</v>
       </c>
@@ -8908,7 +8892,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1179</v>
       </c>
@@ -8931,7 +8915,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1030</v>
       </c>
@@ -8954,7 +8938,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>856</v>
       </c>
@@ -8977,7 +8961,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1080</v>
       </c>
@@ -9000,7 +8984,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>615</v>
       </c>
@@ -9023,7 +9007,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1056</v>
       </c>
@@ -9046,7 +9030,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>468</v>
       </c>
@@ -9069,7 +9053,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1102</v>
       </c>
@@ -9092,7 +9076,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>330</v>
       </c>
@@ -9115,7 +9099,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -9138,7 +9122,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -9161,7 +9145,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>651</v>
       </c>
@@ -9184,7 +9168,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>591</v>
       </c>
@@ -9207,7 +9191,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -9230,7 +9214,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>205</v>
       </c>
@@ -9253,7 +9237,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -9276,7 +9260,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>657</v>
       </c>
@@ -9299,7 +9283,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>507</v>
       </c>
@@ -9322,7 +9306,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>313</v>
       </c>
@@ -9345,7 +9329,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -9368,7 +9352,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>348</v>
       </c>
@@ -9391,7 +9375,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -9414,7 +9398,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>408</v>
       </c>
@@ -9437,7 +9421,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -9460,7 +9444,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>94</v>
       </c>
@@ -9483,7 +9467,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>669</v>
       </c>
@@ -9506,7 +9490,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -9529,7 +9513,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>305</v>
       </c>
@@ -9552,7 +9536,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>390</v>
       </c>
@@ -9575,7 +9559,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>515</v>
       </c>
@@ -9598,7 +9582,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>281</v>
       </c>
@@ -9621,7 +9605,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>157</v>
       </c>
@@ -9644,7 +9628,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>98</v>
       </c>
@@ -9667,7 +9651,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>106</v>
       </c>
@@ -9690,7 +9674,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>400</v>
       </c>
@@ -9713,7 +9697,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -9736,7 +9720,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>358</v>
       </c>
@@ -9759,7 +9743,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>495</v>
       </c>
@@ -9782,7 +9766,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>309</v>
       </c>
@@ -9805,7 +9789,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>730</v>
       </c>
@@ -9828,7 +9812,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>964</v>
       </c>
@@ -9851,7 +9835,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>683</v>
       </c>
@@ -9874,7 +9858,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>876</v>
       </c>
@@ -9897,7 +9881,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>185</v>
       </c>
@@ -9920,7 +9904,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1010</v>
       </c>
@@ -9943,7 +9927,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>189</v>
       </c>
@@ -9966,7 +9950,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>727</v>
       </c>
@@ -9989,7 +9973,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -10012,7 +9996,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>334</v>
       </c>
@@ -10035,7 +10019,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>493</v>
       </c>
@@ -10058,7 +10042,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>898</v>
       </c>
@@ -10081,7 +10065,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>384</v>
       </c>
@@ -10104,7 +10088,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -10127,7 +10111,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>635</v>
       </c>
@@ -10150,7 +10134,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>183</v>
       </c>
@@ -10173,7 +10157,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>147</v>
       </c>
@@ -10196,7 +10180,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>740</v>
       </c>
@@ -10219,7 +10203,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>410</v>
       </c>
@@ -10242,7 +10226,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>124</v>
       </c>
@@ -10265,7 +10249,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>136</v>
       </c>
@@ -10288,7 +10272,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>380</v>
       </c>
@@ -10311,7 +10295,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>689</v>
       </c>
@@ -10334,7 +10318,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>169</v>
       </c>
@@ -10357,7 +10341,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>221</v>
       </c>
@@ -10380,7 +10364,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>659</v>
       </c>
@@ -10403,7 +10387,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>316</v>
       </c>
@@ -10426,7 +10410,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>842</v>
       </c>
@@ -10449,7 +10433,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>758</v>
       </c>
@@ -10472,7 +10456,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>489</v>
       </c>
@@ -10495,7 +10479,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>193</v>
       </c>
@@ -10518,7 +10502,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1104</v>
       </c>
@@ -10541,7 +10525,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>914</v>
       </c>
@@ -10564,7 +10548,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>968</v>
       </c>
@@ -10587,7 +10571,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1074</v>
       </c>
@@ -10610,7 +10594,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -10633,7 +10617,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1024</v>
       </c>
@@ -10656,7 +10640,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1076</v>
       </c>
@@ -10679,7 +10663,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>533</v>
       </c>
@@ -10702,7 +10686,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>79</v>
       </c>
@@ -10725,7 +10709,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>966</v>
       </c>
@@ -10748,7 +10732,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1046</v>
       </c>
@@ -10771,7 +10755,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>691</v>
       </c>
@@ -10794,7 +10778,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>752</v>
       </c>
@@ -10817,7 +10801,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>994</v>
       </c>
@@ -10840,7 +10824,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1172</v>
       </c>
@@ -10863,7 +10847,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>497</v>
       </c>
@@ -10886,7 +10870,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>896</v>
       </c>
@@ -10909,7 +10893,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1299</v>
       </c>
@@ -10932,7 +10916,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>132</v>
       </c>
@@ -10955,7 +10939,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>414</v>
       </c>
@@ -10978,7 +10962,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>122</v>
       </c>
@@ -11001,7 +10985,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>513</v>
       </c>
@@ -11024,7 +11008,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1409</v>
       </c>
@@ -11047,7 +11031,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -11070,7 +11054,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1018</v>
       </c>
@@ -11093,7 +11077,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1300</v>
       </c>
@@ -11116,7 +11100,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1301</v>
       </c>
@@ -11139,7 +11123,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1302</v>
       </c>
@@ -11162,7 +11146,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1303</v>
       </c>
@@ -11185,7 +11169,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1304</v>
       </c>
@@ -11208,7 +11192,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1305</v>
       </c>
@@ -11231,7 +11215,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1306</v>
       </c>
@@ -11254,7 +11238,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1307</v>
       </c>
@@ -11277,7 +11261,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1308</v>
       </c>
@@ -11300,7 +11284,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1410</v>
       </c>
@@ -11323,7 +11307,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>472</v>
       </c>
@@ -11346,7 +11330,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1014</v>
       </c>
@@ -11369,7 +11353,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1000</v>
       </c>
@@ -11392,7 +11376,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1309</v>
       </c>
@@ -11415,7 +11399,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1116</v>
       </c>
@@ -11438,7 +11422,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>581</v>
       </c>
@@ -11461,7 +11445,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>255</v>
       </c>
@@ -11484,7 +11468,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>464</v>
       </c>
@@ -11507,7 +11491,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1154</v>
       </c>
@@ -11530,7 +11514,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1070</v>
       </c>
@@ -11553,7 +11537,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1106</v>
       </c>
@@ -11576,7 +11560,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -11599,7 +11583,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>788</v>
       </c>
@@ -11622,7 +11606,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>925</v>
       </c>
@@ -11645,7 +11629,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>525</v>
       </c>
@@ -11668,7 +11652,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>259</v>
       </c>
@@ -11691,7 +11675,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1411</v>
       </c>
@@ -11714,7 +11698,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1062</v>
       </c>
@@ -11737,7 +11721,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>283</v>
       </c>
@@ -11760,7 +11744,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>998</v>
       </c>
@@ -11783,7 +11767,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>988</v>
       </c>
@@ -11806,7 +11790,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1114</v>
       </c>
@@ -11829,7 +11813,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1310</v>
       </c>
@@ -11852,7 +11836,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1082</v>
       </c>
@@ -11875,7 +11859,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1068</v>
       </c>
@@ -11898,7 +11882,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>100</v>
       </c>
@@ -11921,7 +11905,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>402</v>
       </c>
@@ -11944,7 +11928,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>607</v>
       </c>
@@ -11967,7 +11951,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>923</v>
       </c>
@@ -11990,7 +11974,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>563</v>
       </c>
@@ -12013,7 +11997,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1130</v>
       </c>
@@ -12036,7 +12020,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>786</v>
       </c>
@@ -12059,7 +12043,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1146</v>
       </c>
@@ -12082,7 +12066,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1016</v>
       </c>
@@ -12105,7 +12089,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1311</v>
       </c>
@@ -12128,7 +12112,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>631</v>
       </c>
@@ -12151,7 +12135,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1312</v>
       </c>
@@ -12174,7 +12158,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1313</v>
       </c>
@@ -12197,7 +12181,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1314</v>
       </c>
@@ -12220,7 +12204,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1315</v>
       </c>
@@ -12243,7 +12227,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1412</v>
       </c>
@@ -12266,7 +12250,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1413</v>
       </c>
@@ -12289,7 +12273,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1316</v>
       </c>
@@ -12312,7 +12296,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1317</v>
       </c>
@@ -12335,7 +12319,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1318</v>
       </c>
@@ -12358,7 +12342,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1319</v>
       </c>
@@ -12381,7 +12365,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1321</v>
       </c>
@@ -12404,7 +12388,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1322</v>
       </c>
@@ -12427,7 +12411,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1323</v>
       </c>
@@ -12450,7 +12434,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1324</v>
       </c>
@@ -12473,7 +12457,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1325</v>
       </c>
@@ -12496,7 +12480,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1326</v>
       </c>
@@ -12519,7 +12503,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1414</v>
       </c>
@@ -12542,7 +12526,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1328</v>
       </c>
@@ -12565,7 +12549,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1329</v>
       </c>
@@ -12588,7 +12572,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1330</v>
       </c>
@@ -12611,7 +12595,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1415</v>
       </c>
@@ -12634,7 +12618,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1416</v>
       </c>
@@ -12657,7 +12641,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1331</v>
       </c>
@@ -12680,7 +12664,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1332</v>
       </c>
@@ -12703,7 +12687,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1333</v>
       </c>
@@ -12726,7 +12710,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1417</v>
       </c>
@@ -12749,7 +12733,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1334</v>
       </c>
@@ -12772,7 +12756,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1418</v>
       </c>
@@ -12795,7 +12779,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1419</v>
       </c>
@@ -12818,7 +12802,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1336</v>
       </c>
@@ -12841,7 +12825,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1337</v>
       </c>
@@ -12864,7 +12848,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1338</v>
       </c>
@@ -12887,7 +12871,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1420</v>
       </c>
@@ -12910,7 +12894,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1339</v>
       </c>
@@ -12933,7 +12917,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1421</v>
       </c>
@@ -12956,7 +12940,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1422</v>
       </c>
@@ -12979,7 +12963,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1423</v>
       </c>
@@ -13002,7 +12986,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1424</v>
       </c>
@@ -13025,7 +13009,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1341</v>
       </c>
@@ -13048,7 +13032,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1342</v>
       </c>
@@ -13071,7 +13055,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1425</v>
       </c>
@@ -13094,7 +13078,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1343</v>
       </c>
@@ -13117,7 +13101,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1426</v>
       </c>
@@ -13140,7 +13124,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1427</v>
       </c>
@@ -13163,7 +13147,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1345</v>
       </c>
@@ -13186,7 +13170,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1346</v>
       </c>
@@ -13209,7 +13193,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1428</v>
       </c>
@@ -13232,7 +13216,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1347</v>
       </c>
@@ -13255,7 +13239,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1429</v>
       </c>
@@ -13278,7 +13262,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1430</v>
       </c>
@@ -13301,7 +13285,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1349</v>
       </c>
@@ -13324,7 +13308,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>862</v>
       </c>
@@ -13347,7 +13331,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1034</v>
       </c>
@@ -13370,7 +13354,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>846</v>
       </c>
@@ -13393,7 +13377,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>836</v>
       </c>
@@ -13416,7 +13400,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>503</v>
       </c>
@@ -13439,7 +13423,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>742</v>
       </c>
@@ -13462,7 +13446,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>571</v>
       </c>
@@ -13485,7 +13469,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>603</v>
       </c>
@@ -13508,7 +13492,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>328</v>
       </c>
@@ -13531,7 +13515,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>910</v>
       </c>
@@ -13554,7 +13538,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>549</v>
       </c>
@@ -13577,7 +13561,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1094</v>
       </c>
@@ -13600,7 +13584,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>225</v>
       </c>
@@ -13623,7 +13607,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>368</v>
       </c>
@@ -13646,7 +13630,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>838</v>
       </c>
@@ -13669,7 +13653,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>376</v>
       </c>
@@ -13692,7 +13676,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>173</v>
       </c>
@@ -13715,7 +13699,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>320</v>
       </c>
@@ -13738,7 +13722,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>810</v>
       </c>
@@ -13761,7 +13745,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>639</v>
       </c>
@@ -13784,7 +13768,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1158</v>
       </c>
@@ -13807,7 +13791,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>197</v>
       </c>
@@ -13830,7 +13814,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>22</v>
       </c>
@@ -13853,7 +13837,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>629</v>
       </c>
@@ -13876,7 +13860,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>778</v>
       </c>
@@ -13899,7 +13883,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>784</v>
       </c>
@@ -13922,7 +13906,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>285</v>
       </c>
@@ -13945,7 +13929,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>725</v>
       </c>
@@ -13968,7 +13952,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>780</v>
       </c>
@@ -13991,7 +13975,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>539</v>
       </c>
@@ -14014,7 +13998,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>120</v>
       </c>
@@ -14037,7 +14021,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>902</v>
       </c>
@@ -14060,7 +14044,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>589</v>
       </c>
@@ -14083,7 +14067,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>746</v>
       </c>
@@ -14106,7 +14090,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>452</v>
       </c>
@@ -14129,7 +14113,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>460</v>
       </c>
@@ -14152,7 +14136,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>599</v>
       </c>
@@ -14175,7 +14159,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>882</v>
       </c>
@@ -14198,7 +14182,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>583</v>
       </c>
@@ -14221,7 +14205,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>848</v>
       </c>
@@ -14244,7 +14228,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>470</v>
       </c>
@@ -14267,7 +14251,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>346</v>
       </c>
@@ -14290,7 +14274,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>880</v>
       </c>
@@ -14313,7 +14297,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>619</v>
       </c>
@@ -14336,7 +14320,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>921</v>
       </c>
@@ -14359,7 +14343,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>900</v>
       </c>
@@ -14382,7 +14366,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>927</v>
       </c>
@@ -14405,7 +14389,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>477</v>
       </c>
@@ -14428,7 +14412,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>90</v>
       </c>
@@ -14451,7 +14435,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>711</v>
       </c>
@@ -14474,7 +14458,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>263</v>
       </c>
@@ -14497,7 +14481,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1431</v>
       </c>
@@ -14520,7 +14504,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>677</v>
       </c>
@@ -14543,7 +14527,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>118</v>
       </c>
@@ -14566,7 +14550,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1432</v>
       </c>
@@ -14589,7 +14573,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>521</v>
       </c>
@@ -14612,7 +14596,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>782</v>
       </c>
@@ -14635,7 +14619,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -14658,7 +14642,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>138</v>
       </c>
@@ -14681,7 +14665,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>404</v>
       </c>
@@ -14704,7 +14688,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>428</v>
       </c>
@@ -14727,7 +14711,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -14750,7 +14734,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>511</v>
       </c>
@@ -14773,7 +14757,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>633</v>
       </c>
@@ -14796,7 +14780,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1072</v>
       </c>
@@ -14819,7 +14803,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -14842,7 +14826,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>954</v>
       </c>
@@ -14865,7 +14849,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>499</v>
       </c>
@@ -14888,7 +14872,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>77</v>
       </c>
@@ -14911,7 +14895,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>62</v>
       </c>
@@ -14934,7 +14918,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>529</v>
       </c>
@@ -14957,7 +14941,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>352</v>
       </c>
@@ -14980,7 +14964,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>501</v>
       </c>
@@ -15003,7 +14987,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>764</v>
       </c>
@@ -15026,7 +15010,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>908</v>
       </c>
@@ -15049,7 +15033,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1132</v>
       </c>
@@ -15072,7 +15056,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>894</v>
       </c>
@@ -15095,7 +15079,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>364</v>
       </c>
@@ -15118,7 +15102,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>952</v>
       </c>
@@ -15141,7 +15125,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>34</v>
       </c>
@@ -15164,7 +15148,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>392</v>
       </c>
@@ -15187,7 +15171,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1006</v>
       </c>
@@ -15210,7 +15194,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>108</v>
       </c>
@@ -15233,7 +15217,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>962</v>
       </c>
@@ -15256,7 +15240,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>559</v>
       </c>
@@ -15279,7 +15263,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>671</v>
       </c>
@@ -15302,7 +15286,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>697</v>
       </c>
@@ -15325,7 +15309,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>701</v>
       </c>
@@ -15348,7 +15332,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>102</v>
       </c>
@@ -15371,7 +15355,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1044</v>
       </c>
@@ -15394,7 +15378,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>824</v>
       </c>
@@ -15417,7 +15401,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>990</v>
       </c>
@@ -15440,7 +15424,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>456</v>
       </c>
@@ -15463,7 +15447,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1124</v>
       </c>
@@ -15486,7 +15470,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1433</v>
       </c>
@@ -15509,7 +15493,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>878</v>
       </c>
@@ -15532,7 +15516,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>864</v>
       </c>
@@ -15555,7 +15539,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>675</v>
       </c>
@@ -15578,7 +15562,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>557</v>
       </c>
@@ -15601,7 +15585,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>748</v>
       </c>
@@ -15624,7 +15608,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>454</v>
       </c>
@@ -15647,7 +15631,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>814</v>
       </c>
@@ -15670,7 +15654,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1012</v>
       </c>
@@ -15693,7 +15677,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>802</v>
       </c>
@@ -15716,7 +15700,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>394</v>
       </c>
@@ -15739,7 +15723,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>661</v>
       </c>
@@ -15762,7 +15746,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>279</v>
       </c>
@@ -15785,7 +15769,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>191</v>
       </c>
@@ -15808,7 +15792,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>798</v>
       </c>
@@ -15831,7 +15815,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>114</v>
       </c>
@@ -15854,7 +15838,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>430</v>
       </c>
@@ -15877,7 +15861,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>744</v>
       </c>
@@ -15900,7 +15884,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>126</v>
       </c>
@@ -15923,7 +15907,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>943</v>
       </c>
@@ -15946,7 +15930,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>553</v>
       </c>
@@ -15969,7 +15953,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>159</v>
       </c>
@@ -15992,7 +15976,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>340</v>
       </c>
@@ -16015,7 +15999,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>984</v>
       </c>
@@ -16038,7 +16022,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1088</v>
       </c>
@@ -16061,7 +16045,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>645</v>
       </c>
@@ -16084,7 +16068,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1434</v>
       </c>
@@ -16107,7 +16091,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>92</v>
       </c>
@@ -16130,7 +16114,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>719</v>
       </c>
@@ -16153,7 +16137,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>647</v>
       </c>
@@ -16176,7 +16160,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>627</v>
       </c>
@@ -16199,7 +16183,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>56</v>
       </c>
@@ -16222,7 +16206,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>36</v>
       </c>
@@ -16245,7 +16229,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>318</v>
       </c>
@@ -16268,7 +16252,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1435</v>
       </c>
@@ -16291,7 +16275,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>332</v>
       </c>
@@ -16314,7 +16298,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>271</v>
       </c>
@@ -16337,7 +16321,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>585</v>
       </c>
@@ -16360,7 +16344,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>167</v>
       </c>
@@ -16383,7 +16367,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>796</v>
       </c>
@@ -16406,7 +16390,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>531</v>
       </c>
@@ -16429,7 +16413,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1060</v>
       </c>
@@ -16452,7 +16436,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>707</v>
       </c>
@@ -16475,7 +16459,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>12</v>
       </c>
@@ -16498,7 +16482,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>311</v>
       </c>
@@ -16521,7 +16505,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>623</v>
       </c>
@@ -16544,7 +16528,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1090</v>
       </c>
@@ -16567,7 +16551,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>611</v>
       </c>
@@ -16590,7 +16574,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>297</v>
       </c>
@@ -16613,7 +16597,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>301</v>
       </c>
@@ -16636,7 +16620,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>434</v>
       </c>
@@ -16659,7 +16643,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>906</v>
       </c>
@@ -16682,7 +16666,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>567</v>
       </c>
@@ -16705,7 +16689,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>709</v>
       </c>
@@ -16728,7 +16712,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>73</v>
       </c>
@@ -16751,7 +16735,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>687</v>
       </c>
@@ -16774,7 +16758,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>535</v>
       </c>
@@ -16797,7 +16781,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>448</v>
       </c>
@@ -16820,7 +16804,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>350</v>
       </c>
@@ -16843,7 +16827,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>295</v>
       </c>
@@ -16866,7 +16850,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1436</v>
       </c>
@@ -16889,7 +16873,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>929</v>
       </c>
@@ -16912,7 +16896,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>609</v>
       </c>
@@ -16935,7 +16919,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>667</v>
       </c>
@@ -16958,7 +16942,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1184</v>
       </c>
@@ -16981,7 +16965,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>424</v>
       </c>
@@ -17004,7 +16988,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>565</v>
       </c>
@@ -17027,7 +17011,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1028</v>
       </c>
@@ -17050,7 +17034,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>30</v>
       </c>
@@ -17073,7 +17057,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>866</v>
       </c>
@@ -17096,7 +17080,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>38</v>
       </c>
@@ -17119,7 +17103,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1437</v>
       </c>
@@ -17142,7 +17126,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>481</v>
       </c>
@@ -17165,7 +17149,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>681</v>
       </c>
@@ -17188,7 +17172,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>904</v>
       </c>
@@ -17211,7 +17195,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>754</v>
       </c>
@@ -17234,7 +17218,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>406</v>
       </c>
@@ -17257,7 +17241,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>446</v>
       </c>
@@ -17280,7 +17264,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>868</v>
       </c>
@@ -17303,7 +17287,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>46</v>
       </c>
@@ -17326,7 +17310,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>858</v>
       </c>
@@ -17349,7 +17333,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>756</v>
       </c>
@@ -17372,7 +17356,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>884</v>
       </c>
@@ -17395,7 +17379,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>48</v>
       </c>
@@ -17418,7 +17402,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>822</v>
       </c>
@@ -17441,7 +17425,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1040</v>
       </c>
@@ -17464,7 +17448,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>291</v>
       </c>
@@ -17487,7 +17471,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>128</v>
       </c>
@@ -17510,7 +17494,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>703</v>
       </c>
@@ -17533,7 +17517,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>912</v>
       </c>
@@ -17556,7 +17540,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>693</v>
       </c>
@@ -17579,7 +17563,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>579</v>
       </c>
@@ -17602,7 +17586,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>919</v>
       </c>
@@ -17625,7 +17609,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>641</v>
       </c>
@@ -17648,7 +17632,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>653</v>
       </c>
@@ -17671,7 +17655,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>738</v>
       </c>
@@ -17694,7 +17678,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>8</v>
       </c>
@@ -17717,7 +17701,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>491</v>
       </c>
@@ -17740,7 +17724,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>378</v>
       </c>
@@ -17763,7 +17747,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>547</v>
       </c>
@@ -17786,7 +17770,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>475</v>
       </c>
@@ -17809,7 +17793,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>808</v>
       </c>
@@ -17832,7 +17816,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>249</v>
       </c>
@@ -17855,7 +17839,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>64</v>
       </c>
@@ -17878,7 +17862,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>338</v>
       </c>
@@ -17901,7 +17885,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>695</v>
       </c>
@@ -17924,7 +17908,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>561</v>
       </c>
@@ -17947,7 +17931,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>673</v>
       </c>
@@ -17970,7 +17954,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>939</v>
       </c>
@@ -17993,7 +17977,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>699</v>
       </c>
@@ -18016,7 +18000,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>32</v>
       </c>
@@ -18039,7 +18023,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>874</v>
       </c>
@@ -18062,7 +18046,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>412</v>
       </c>
@@ -18085,7 +18069,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>794</v>
       </c>
@@ -18108,7 +18092,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>649</v>
       </c>
@@ -18131,7 +18115,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1142</v>
       </c>
@@ -18154,7 +18138,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>790</v>
       </c>
@@ -18177,7 +18161,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1100</v>
       </c>
@@ -18200,7 +18184,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>112</v>
       </c>
@@ -18223,7 +18207,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>551</v>
       </c>
@@ -18246,7 +18230,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>892</v>
       </c>
@@ -18269,7 +18253,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>770</v>
       </c>
@@ -18292,7 +18276,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>69</v>
       </c>
@@ -18315,7 +18299,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>832</v>
       </c>
@@ -18338,7 +18322,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>958</v>
       </c>
@@ -18361,7 +18345,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>130</v>
       </c>
@@ -18384,7 +18368,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>613</v>
       </c>
@@ -18407,7 +18391,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>289</v>
       </c>
@@ -18430,7 +18414,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>935</v>
       </c>
@@ -18453,7 +18437,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1128</v>
       </c>
@@ -18476,7 +18460,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>436</v>
       </c>
@@ -18499,7 +18483,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>479</v>
       </c>
@@ -18522,7 +18506,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>505</v>
       </c>
@@ -18545,7 +18529,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>243</v>
       </c>
@@ -18568,7 +18552,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>970</v>
       </c>
@@ -18591,7 +18575,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>388</v>
       </c>
@@ -18614,7 +18598,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>483</v>
       </c>
@@ -18637,7 +18621,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>165</v>
       </c>
@@ -18660,7 +18644,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>155</v>
       </c>
@@ -18683,7 +18667,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>852</v>
       </c>
@@ -18706,7 +18690,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>569</v>
       </c>
@@ -18729,7 +18713,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>60</v>
       </c>
@@ -18752,7 +18736,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>617</v>
       </c>
@@ -18775,7 +18759,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1002</v>
       </c>
@@ -18798,7 +18782,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>888</v>
       </c>
@@ -18821,7 +18805,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>766</v>
       </c>
@@ -18844,7 +18828,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>219</v>
       </c>
@@ -18867,7 +18851,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>356</v>
       </c>
@@ -18890,7 +18874,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>344</v>
       </c>
@@ -18913,7 +18897,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>950</v>
       </c>
@@ -18936,7 +18920,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>679</v>
       </c>
@@ -18959,7 +18943,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>181</v>
       </c>
@@ -18982,7 +18966,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>812</v>
       </c>
@@ -19005,7 +18989,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>956</v>
       </c>
@@ -19028,7 +19012,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>432</v>
       </c>
@@ -19051,7 +19035,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>840</v>
       </c>
@@ -19074,7 +19058,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>762</v>
       </c>
@@ -19097,7 +19081,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>886</v>
       </c>
@@ -19120,7 +19104,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1008</v>
       </c>
@@ -19143,7 +19127,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>732</v>
       </c>
@@ -19166,7 +19150,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>713</v>
       </c>
@@ -19189,7 +19173,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>655</v>
       </c>
@@ -19212,7 +19196,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>20</v>
       </c>
@@ -19235,7 +19219,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>233</v>
       </c>
@@ -19258,7 +19242,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>134</v>
       </c>
@@ -19281,7 +19265,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>537</v>
       </c>
@@ -19304,7 +19288,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>519</v>
       </c>
@@ -19327,7 +19311,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1438</v>
       </c>
@@ -19350,7 +19334,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>772</v>
       </c>
@@ -19373,7 +19357,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1174</v>
       </c>
@@ -19396,7 +19380,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>96</v>
       </c>
@@ -19419,7 +19403,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>241</v>
       </c>
@@ -19442,7 +19426,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>509</v>
       </c>
@@ -19465,7 +19449,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>336</v>
       </c>
@@ -19488,7 +19472,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>18</v>
       </c>
@@ -19511,7 +19495,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>426</v>
       </c>
@@ -19534,7 +19518,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>663</v>
       </c>
@@ -19557,7 +19541,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>818</v>
       </c>
@@ -19580,7 +19564,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>466</v>
       </c>
@@ -19603,7 +19587,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>462</v>
       </c>
@@ -19626,7 +19610,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>860</v>
       </c>
@@ -19649,7 +19633,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>890</v>
       </c>
@@ -19672,7 +19656,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>326</v>
       </c>
@@ -19695,7 +19679,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>517</v>
       </c>
@@ -19718,7 +19702,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>980</v>
       </c>
@@ -19741,7 +19725,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>324</v>
       </c>
@@ -19764,7 +19748,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>844</v>
       </c>
@@ -19787,7 +19771,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>828</v>
       </c>
@@ -19810,7 +19794,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>422</v>
       </c>
@@ -19833,7 +19817,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>872</v>
       </c>
@@ -19856,7 +19840,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>937</v>
       </c>
@@ -19879,7 +19863,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1439</v>
       </c>
@@ -19902,7 +19886,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1122</v>
       </c>
@@ -19925,7 +19909,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>444</v>
       </c>
@@ -19948,7 +19932,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>806</v>
       </c>
@@ -19971,7 +19955,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>545</v>
       </c>
@@ -19994,7 +19978,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>372</v>
       </c>
@@ -20017,7 +20001,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>86</v>
       </c>
@@ -20040,7 +20024,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>416</v>
       </c>
@@ -20063,7 +20047,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>104</v>
       </c>
@@ -20086,7 +20070,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>396</v>
       </c>
@@ -20109,7 +20093,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>776</v>
       </c>
@@ -20132,7 +20116,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>267</v>
       </c>
@@ -20155,7 +20139,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1108</v>
       </c>
@@ -20178,7 +20162,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1058</v>
       </c>
@@ -20201,7 +20185,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>215</v>
       </c>
@@ -20224,7 +20208,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>251</v>
       </c>
@@ -20247,7 +20231,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>253</v>
       </c>
@@ -20270,7 +20254,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>6</v>
       </c>
@@ -20293,7 +20277,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>723</v>
       </c>
@@ -20316,7 +20300,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>941</v>
       </c>
@@ -20339,7 +20323,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>933</v>
       </c>
@@ -20362,7 +20346,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1182</v>
       </c>
@@ -20385,7 +20369,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>261</v>
       </c>
@@ -20408,7 +20392,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1048</v>
       </c>
@@ -20431,7 +20415,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1092</v>
       </c>
@@ -20454,7 +20438,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>555</v>
       </c>
@@ -20477,7 +20461,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>442</v>
       </c>
@@ -20500,7 +20484,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>257</v>
       </c>
@@ -20523,7 +20507,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1004</v>
       </c>
@@ -20546,7 +20530,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1148</v>
       </c>
@@ -20569,7 +20553,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>736</v>
       </c>
@@ -20592,7 +20576,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>601</v>
       </c>
@@ -20615,7 +20599,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1298</v>
       </c>
@@ -20638,7 +20622,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1320</v>
       </c>
@@ -20661,7 +20645,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1327</v>
       </c>
@@ -20684,7 +20668,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1335</v>
       </c>
@@ -20707,7 +20691,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1340</v>
       </c>
@@ -20730,7 +20714,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1344</v>
       </c>
@@ -20753,7 +20737,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1348</v>
       </c>
@@ -20776,7 +20760,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1112</v>
       </c>
@@ -20799,7 +20783,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1183</v>
       </c>
